--- a/src/pom/ExcelData/LeaveAndAttendance/BiometricAttendanceUpload.xlsx
+++ b/src/pom/ExcelData/LeaveAndAttendance/BiometricAttendanceUpload.xlsx
@@ -11,7 +11,7 @@
     <sheet name="SchedulerConfiguration" sheetId="2" r:id="rId2"/>
     <sheet name="BiometricAttendanceVerify" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="3">
@@ -112,13 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,7 +565,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
